--- a/posesiones/1381255.xlsx
+++ b/posesiones/1381255.xlsx
@@ -1871,10 +1871,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1965,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2015,7 +2015,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2065,7 +2065,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>11</v>
@@ -2118,7 +2118,7 @@
         <v>1</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R8">
         <v>19</v>
@@ -2168,7 +2168,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2218,7 +2218,7 @@
         <v>1</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R10">
         <v>8</v>
@@ -2271,7 +2271,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2321,7 +2321,7 @@
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R12">
         <v>14</v>
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2424,7 +2424,7 @@
         <v>1</v>
       </c>
       <c r="Q14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R14">
         <v>7</v>
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2524,7 +2524,7 @@
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R16">
         <v>28</v>
@@ -2577,7 +2577,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2627,7 +2627,7 @@
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R18">
         <v>10</v>
@@ -2680,7 +2680,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2730,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R20">
         <v>16</v>
@@ -2780,7 +2780,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2827,7 +2827,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2874,7 +2874,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2924,7 +2924,7 @@
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R24">
         <v>0</v>
@@ -2974,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -3021,7 +3021,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3068,7 +3068,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -3118,7 +3118,7 @@
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R28">
         <v>16</v>
@@ -3168,7 +3168,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -3215,7 +3215,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -3265,7 +3265,7 @@
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R31">
         <v>19</v>
@@ -3315,7 +3315,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3365,7 +3365,7 @@
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R33">
         <v>17</v>
@@ -3415,7 +3415,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -3465,7 +3465,7 @@
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R35">
         <v>16</v>
@@ -3518,7 +3518,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -3568,7 +3568,7 @@
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R37">
         <v>21</v>
@@ -3621,7 +3621,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -3671,7 +3671,7 @@
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R39">
         <v>8</v>
@@ -3724,7 +3724,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R41">
         <v>8</v>
@@ -3827,7 +3827,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -3874,7 +3874,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -3921,7 +3921,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -3971,7 +3971,7 @@
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R45">
         <v>34</v>
@@ -4021,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -4071,7 +4071,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -4121,7 +4121,7 @@
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R48">
         <v>22</v>
@@ -4174,7 +4174,7 @@
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R49">
         <v>13</v>
@@ -4227,7 +4227,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -4277,7 +4277,7 @@
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R51">
         <v>6</v>
@@ -4327,7 +4327,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -4377,7 +4377,7 @@
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R53">
         <v>15</v>
@@ -4427,7 +4427,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4474,7 +4474,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -4521,7 +4521,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4568,7 +4568,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -4618,7 +4618,7 @@
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R58">
         <v>0</v>
@@ -4671,7 +4671,7 @@
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R59">
         <v>10</v>
@@ -4721,7 +4721,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4765,7 +4765,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -4815,7 +4815,7 @@
         <v>1</v>
       </c>
       <c r="Q62">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R62">
         <v>23</v>
@@ -4868,7 +4868,7 @@
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R63">
         <v>19</v>
@@ -4921,7 +4921,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -4971,7 +4971,7 @@
         <v>1</v>
       </c>
       <c r="Q65">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R65">
         <v>5</v>
@@ -5021,7 +5021,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -5071,7 +5071,7 @@
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R67">
         <v>16</v>
@@ -5124,7 +5124,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -5174,7 +5174,7 @@
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R69">
         <v>8</v>
@@ -5227,7 +5227,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -5274,7 +5274,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5324,7 +5324,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -5374,7 +5374,7 @@
         <v>1</v>
       </c>
       <c r="Q73">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R73">
         <v>12</v>
@@ -5427,7 +5427,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -5477,7 +5477,7 @@
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R75">
         <v>20</v>
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="Q76">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R76">
         <v>19</v>
@@ -5580,7 +5580,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5630,7 +5630,7 @@
         <v>1</v>
       </c>
       <c r="Q78">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R78">
         <v>22</v>
@@ -5680,7 +5680,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5730,7 +5730,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5777,7 +5777,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5830,7 +5830,7 @@
         <v>1</v>
       </c>
       <c r="Q82">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R82">
         <v>17</v>
@@ -5880,7 +5880,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5927,7 +5927,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -5974,7 +5974,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -6021,7 +6021,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -6068,7 +6068,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -6118,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="Q88">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R88">
         <v>25</v>
@@ -6168,7 +6168,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -6218,7 +6218,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -6268,7 +6268,7 @@
         <v>1</v>
       </c>
       <c r="Q91">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R91">
         <v>22</v>
@@ -6321,7 +6321,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -6368,7 +6368,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -6418,7 +6418,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6465,7 +6465,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -6512,7 +6512,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6559,7 +6559,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6606,7 +6606,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6653,7 +6653,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6700,7 +6700,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6747,7 +6747,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -6794,7 +6794,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -6841,7 +6841,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6891,7 +6891,7 @@
         <v>1</v>
       </c>
       <c r="Q104">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R104">
         <v>26</v>
@@ -6941,7 +6941,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -6988,7 +6988,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -7035,7 +7035,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -7082,7 +7082,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -7129,7 +7129,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7179,7 +7179,7 @@
         <v>1</v>
       </c>
       <c r="Q110">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R110">
         <v>23</v>
@@ -7229,7 +7229,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -7276,7 +7276,7 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -7323,7 +7323,7 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -7373,7 +7373,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7423,7 +7423,7 @@
         <v>1</v>
       </c>
       <c r="Q115">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R115">
         <v>20</v>
@@ -7473,7 +7473,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7520,7 +7520,7 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -7570,7 +7570,7 @@
         <v>1</v>
       </c>
       <c r="Q118">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R118">
         <v>4</v>
@@ -7620,7 +7620,7 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -7661,10 +7661,10 @@
         <v>1</v>
       </c>
       <c r="P120" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q120">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -7711,7 +7711,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7758,7 +7758,7 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -7799,10 +7799,10 @@
         <v>1</v>
       </c>
       <c r="P123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q123">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -7849,7 +7849,7 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -7899,7 +7899,7 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -7949,7 +7949,7 @@
         <v>1</v>
       </c>
       <c r="Q126">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="R126">
         <v>24</v>
@@ -7999,7 +7999,7 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -8049,7 +8049,7 @@
         <v>1</v>
       </c>
       <c r="Q128">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R128">
         <v>13</v>
@@ -8099,7 +8099,7 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -8149,7 +8149,7 @@
         <v>1</v>
       </c>
       <c r="Q130">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R130">
         <v>18</v>
@@ -8199,7 +8199,7 @@
         <v>0</v>
       </c>
       <c r="Q131">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -8249,7 +8249,7 @@
         <v>1</v>
       </c>
       <c r="Q132">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R132">
         <v>10</v>
@@ -8299,7 +8299,7 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -8349,7 +8349,7 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -8396,7 +8396,7 @@
         <v>0</v>
       </c>
       <c r="Q135">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="136" spans="1:18">
@@ -8446,7 +8446,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -8496,7 +8496,7 @@
         <v>1</v>
       </c>
       <c r="Q137">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R137">
         <v>10</v>
@@ -8543,7 +8543,7 @@
         <v>0</v>
       </c>
       <c r="Q138">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="139" spans="1:18">
@@ -8590,7 +8590,7 @@
         <v>1</v>
       </c>
       <c r="Q139">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R139">
         <v>25</v>
@@ -8640,7 +8640,7 @@
         <v>0</v>
       </c>
       <c r="Q140">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -8737,7 +8737,7 @@
         <v>1</v>
       </c>
       <c r="Q142">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R142">
         <v>19</v>
@@ -8790,7 +8790,7 @@
         <v>1</v>
       </c>
       <c r="Q143">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R143">
         <v>13</v>
@@ -8840,7 +8840,7 @@
         <v>0</v>
       </c>
       <c r="Q144">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="145" spans="1:18">
@@ -8887,7 +8887,7 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -8934,7 +8934,7 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -8981,7 +8981,7 @@
         <v>0</v>
       </c>
       <c r="Q147">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -9028,7 +9028,7 @@
         <v>1</v>
       </c>
       <c r="Q148">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R148">
         <v>27</v>
@@ -9081,7 +9081,7 @@
         <v>1</v>
       </c>
       <c r="Q149">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R149">
         <v>13</v>
@@ -9134,7 +9134,7 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -9184,7 +9184,7 @@
         <v>1</v>
       </c>
       <c r="Q151">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R151">
         <v>16</v>
@@ -9234,7 +9234,7 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -9284,7 +9284,7 @@
         <v>1</v>
       </c>
       <c r="Q153">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R153">
         <v>16</v>
@@ -9337,7 +9337,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9387,7 +9387,7 @@
         <v>1</v>
       </c>
       <c r="Q155">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R155">
         <v>13</v>
@@ -9440,7 +9440,7 @@
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -9490,7 +9490,7 @@
         <v>1</v>
       </c>
       <c r="Q157">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R157">
         <v>5</v>
@@ -9540,7 +9540,7 @@
         <v>0</v>
       </c>
       <c r="Q158">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -9590,7 +9590,7 @@
         <v>1</v>
       </c>
       <c r="Q159">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R159">
         <v>10</v>
@@ -9640,7 +9640,7 @@
         <v>0</v>
       </c>
       <c r="Q160">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="161" spans="1:18">
@@ -9687,7 +9687,7 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -9781,7 +9781,7 @@
         <v>0</v>
       </c>
       <c r="Q163">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -9828,7 +9828,7 @@
         <v>0</v>
       </c>
       <c r="Q164">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -9875,7 +9875,7 @@
         <v>0</v>
       </c>
       <c r="Q165">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -9922,7 +9922,7 @@
         <v>0</v>
       </c>
       <c r="Q166">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -9969,7 +9969,7 @@
         <v>0</v>
       </c>
       <c r="Q167">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="168" spans="1:18">
@@ -10016,7 +10016,7 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -10066,7 +10066,7 @@
         <v>1</v>
       </c>
       <c r="Q169">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R169">
         <v>18</v>
@@ -10116,7 +10116,7 @@
         <v>0</v>
       </c>
       <c r="Q170">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="171" spans="1:18">
@@ -10166,7 +10166,7 @@
         <v>1</v>
       </c>
       <c r="Q171">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R171">
         <v>28</v>
@@ -10219,7 +10219,7 @@
         <v>0</v>
       </c>
       <c r="Q172">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="173" spans="1:18">
@@ -10266,7 +10266,7 @@
         <v>0</v>
       </c>
       <c r="Q173">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="174" spans="1:18">
@@ -10313,7 +10313,7 @@
         <v>0</v>
       </c>
       <c r="Q174">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -10360,7 +10360,7 @@
         <v>0</v>
       </c>
       <c r="Q175">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -10407,7 +10407,7 @@
         <v>0</v>
       </c>
       <c r="Q176">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -10454,7 +10454,7 @@
         <v>0</v>
       </c>
       <c r="Q177">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -10504,7 +10504,7 @@
         <v>1</v>
       </c>
       <c r="Q178">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R178">
         <v>7</v>
@@ -10554,7 +10554,7 @@
         <v>0</v>
       </c>
       <c r="Q179">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -10604,7 +10604,7 @@
         <v>1</v>
       </c>
       <c r="Q180">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R180">
         <v>20</v>
@@ -10654,7 +10654,7 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -10701,7 +10701,7 @@
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -10748,7 +10748,7 @@
         <v>0</v>
       </c>
       <c r="Q183">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="184" spans="1:18">
@@ -10795,7 +10795,7 @@
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -10845,7 +10845,7 @@
         <v>0</v>
       </c>
       <c r="Q185">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="186" spans="1:18">
@@ -10892,7 +10892,7 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -10939,7 +10939,7 @@
         <v>0</v>
       </c>
       <c r="Q187">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -10989,7 +10989,7 @@
         <v>1</v>
       </c>
       <c r="Q188">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R188">
         <v>41</v>
@@ -11042,7 +11042,7 @@
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -11092,7 +11092,7 @@
         <v>1</v>
       </c>
       <c r="Q190">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R190">
         <v>9</v>
@@ -11142,7 +11142,7 @@
         <v>0</v>
       </c>
       <c r="Q191">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -11192,7 +11192,7 @@
         <v>0</v>
       </c>
       <c r="Q192">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="193" spans="1:18">
@@ -11239,7 +11239,7 @@
         <v>0</v>
       </c>
       <c r="Q193">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -11286,7 +11286,7 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="195" spans="1:18">
@@ -11333,7 +11333,7 @@
         <v>0</v>
       </c>
       <c r="Q195">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="196" spans="1:18">
@@ -11380,7 +11380,7 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="197" spans="1:18">
@@ -11427,7 +11427,7 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -11474,7 +11474,7 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="199" spans="1:18">
@@ -11524,7 +11524,7 @@
         <v>1</v>
       </c>
       <c r="Q199">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R199">
         <v>14</v>
@@ -11577,7 +11577,7 @@
         <v>0</v>
       </c>
       <c r="Q200">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="201" spans="1:18">
@@ -11627,7 +11627,7 @@
         <v>1</v>
       </c>
       <c r="Q201">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R201">
         <v>20</v>
@@ -11680,7 +11680,7 @@
         <v>0</v>
       </c>
       <c r="Q202">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="203" spans="1:18">
@@ -11730,7 +11730,7 @@
         <v>1</v>
       </c>
       <c r="Q203">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R203">
         <v>8</v>
@@ -11780,7 +11780,7 @@
         <v>0</v>
       </c>
       <c r="Q204">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="205" spans="1:18">
@@ -11830,7 +11830,7 @@
         <v>0</v>
       </c>
       <c r="Q205">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="206" spans="1:18">
@@ -11877,7 +11877,7 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -11924,7 +11924,7 @@
         <v>0</v>
       </c>
       <c r="Q207">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="208" spans="1:18">
@@ -11971,7 +11971,7 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -12018,7 +12018,7 @@
         <v>0</v>
       </c>
       <c r="Q209">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -12065,7 +12065,7 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -12112,7 +12112,7 @@
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -12159,7 +12159,7 @@
         <v>0</v>
       </c>
       <c r="Q212">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="213" spans="1:18">
@@ -12206,7 +12206,7 @@
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -12256,7 +12256,7 @@
         <v>1</v>
       </c>
       <c r="Q214">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R214">
         <v>33</v>
@@ -12309,7 +12309,7 @@
         <v>0</v>
       </c>
       <c r="Q215">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -12359,7 +12359,7 @@
         <v>1</v>
       </c>
       <c r="Q216">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R216">
         <v>13</v>
@@ -12412,7 +12412,7 @@
         <v>0</v>
       </c>
       <c r="Q217">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -12459,7 +12459,7 @@
         <v>0</v>
       </c>
       <c r="Q218">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -12509,7 +12509,7 @@
         <v>0</v>
       </c>
       <c r="Q219">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -12559,7 +12559,7 @@
         <v>1</v>
       </c>
       <c r="Q220">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R220">
         <v>27</v>
@@ -12606,7 +12606,7 @@
         <v>0</v>
       </c>
       <c r="Q221">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -12656,7 +12656,7 @@
         <v>1</v>
       </c>
       <c r="Q222">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R222">
         <v>25</v>
@@ -12709,7 +12709,7 @@
         <v>0</v>
       </c>
       <c r="Q223">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -12759,7 +12759,7 @@
         <v>1</v>
       </c>
       <c r="Q224">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R224">
         <v>20</v>
@@ -12809,7 +12809,7 @@
         <v>0</v>
       </c>
       <c r="Q225">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -12859,7 +12859,7 @@
         <v>1</v>
       </c>
       <c r="Q226">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R226">
         <v>16</v>
@@ -12912,7 +12912,7 @@
         <v>0</v>
       </c>
       <c r="Q227">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -12962,7 +12962,7 @@
         <v>1</v>
       </c>
       <c r="Q228">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R228">
         <v>16</v>
@@ -13012,7 +13012,7 @@
         <v>0</v>
       </c>
       <c r="Q229">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="230" spans="1:18">
@@ -13059,7 +13059,7 @@
         <v>0</v>
       </c>
       <c r="Q230">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -13106,7 +13106,7 @@
         <v>0</v>
       </c>
       <c r="Q231">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -13153,7 +13153,7 @@
         <v>0</v>
       </c>
       <c r="Q232">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -13200,7 +13200,7 @@
         <v>0</v>
       </c>
       <c r="Q233">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -13247,7 +13247,7 @@
         <v>0</v>
       </c>
       <c r="Q234">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -13294,7 +13294,7 @@
         <v>0</v>
       </c>
       <c r="Q235">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -13341,7 +13341,7 @@
         <v>0</v>
       </c>
       <c r="Q236">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13391,7 +13391,7 @@
         <v>1</v>
       </c>
       <c r="Q237">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R237">
         <v>0</v>
@@ -13441,7 +13441,7 @@
         <v>0</v>
       </c>
       <c r="Q238">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -13488,7 +13488,7 @@
         <v>0</v>
       </c>
       <c r="Q239">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -13538,7 +13538,7 @@
         <v>1</v>
       </c>
       <c r="Q240">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R240">
         <v>13</v>
@@ -13588,7 +13588,7 @@
         <v>0</v>
       </c>
       <c r="Q241">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -13632,7 +13632,7 @@
         <v>0</v>
       </c>
       <c r="Q242">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="243" spans="1:18">
@@ -13679,7 +13679,7 @@
         <v>0</v>
       </c>
       <c r="Q243">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -13726,7 +13726,7 @@
         <v>0</v>
       </c>
       <c r="Q244">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -13776,7 +13776,7 @@
         <v>1</v>
       </c>
       <c r="Q245">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R245">
         <v>10</v>
@@ -13826,7 +13826,7 @@
         <v>0</v>
       </c>
       <c r="Q246">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="247" spans="1:18">
@@ -13876,7 +13876,7 @@
         <v>1</v>
       </c>
       <c r="Q247">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R247">
         <v>0</v>
@@ -13926,7 +13926,7 @@
         <v>0</v>
       </c>
       <c r="Q248">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="249" spans="1:18">
@@ -13973,7 +13973,7 @@
         <v>0</v>
       </c>
       <c r="Q249">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -14020,7 +14020,7 @@
         <v>0</v>
       </c>
       <c r="Q250">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="251" spans="1:18">
@@ -14067,7 +14067,7 @@
         <v>0</v>
       </c>
       <c r="Q251">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="252" spans="1:18">
@@ -14114,7 +14114,7 @@
         <v>0</v>
       </c>
       <c r="Q252">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -14161,7 +14161,7 @@
         <v>0</v>
       </c>
       <c r="Q253">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="254" spans="1:18">
@@ -14208,7 +14208,7 @@
         <v>0</v>
       </c>
       <c r="Q254">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -14255,7 +14255,7 @@
         <v>0</v>
       </c>
       <c r="Q255">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -14302,7 +14302,7 @@
         <v>0</v>
       </c>
       <c r="Q256">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -14343,10 +14343,10 @@
         <v>1</v>
       </c>
       <c r="P257" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q257">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -14393,7 +14393,7 @@
         <v>0</v>
       </c>
       <c r="Q258">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="259" spans="1:18">
@@ -14440,7 +14440,7 @@
         <v>0</v>
       </c>
       <c r="Q259">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -14481,10 +14481,10 @@
         <v>1</v>
       </c>
       <c r="P260" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q260">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="261" spans="1:18">
@@ -14534,7 +14534,7 @@
         <v>1</v>
       </c>
       <c r="Q261">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="R261">
         <v>14</v>
@@ -14587,7 +14587,7 @@
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -14637,7 +14637,7 @@
         <v>1</v>
       </c>
       <c r="Q263">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="R263">
         <v>11</v>
@@ -14690,7 +14690,7 @@
         <v>1</v>
       </c>
       <c r="Q264">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="R264">
         <v>23</v>
@@ -14743,7 +14743,7 @@
         <v>0</v>
       </c>
       <c r="Q265">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="266" spans="1:18">
@@ -14790,7 +14790,7 @@
         <v>0</v>
       </c>
       <c r="Q266">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="267" spans="1:18">
@@ -14837,7 +14837,7 @@
         <v>0</v>
       </c>
       <c r="Q267">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -14887,7 +14887,7 @@
         <v>1</v>
       </c>
       <c r="Q268">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="R268">
         <v>30</v>
@@ -14940,7 +14940,7 @@
         <v>1</v>
       </c>
       <c r="Q269">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="R269">
         <v>20</v>
@@ -14993,7 +14993,7 @@
         <v>0</v>
       </c>
       <c r="Q270">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="271" spans="1:18">
@@ -15040,7 +15040,7 @@
         <v>0</v>
       </c>
       <c r="Q271">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="272" spans="1:18">
@@ -15087,7 +15087,7 @@
         <v>0</v>
       </c>
       <c r="Q272">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="273" spans="1:18">
@@ -15134,7 +15134,7 @@
         <v>0</v>
       </c>
       <c r="Q273">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="274" spans="1:18">
@@ -15184,7 +15184,7 @@
         <v>1</v>
       </c>
       <c r="Q274">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R274">
         <v>13</v>
@@ -15237,7 +15237,7 @@
         <v>1</v>
       </c>
       <c r="Q275">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R275">
         <v>20</v>
@@ -15290,7 +15290,7 @@
         <v>0</v>
       </c>
       <c r="Q276">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15337,7 +15337,7 @@
         <v>0</v>
       </c>
       <c r="Q277">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="278" spans="1:18">
@@ -15384,7 +15384,7 @@
         <v>0</v>
       </c>
       <c r="Q278">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="279" spans="1:18">
@@ -15434,7 +15434,7 @@
         <v>1</v>
       </c>
       <c r="Q279">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R279">
         <v>24</v>
@@ -15484,7 +15484,7 @@
         <v>0</v>
       </c>
       <c r="Q280">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="281" spans="1:18">
@@ -15534,7 +15534,7 @@
         <v>1</v>
       </c>
       <c r="Q281">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R281">
         <v>14</v>
@@ -15584,7 +15584,7 @@
         <v>0</v>
       </c>
       <c r="Q282">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="283" spans="1:18">
@@ -15634,7 +15634,7 @@
         <v>1</v>
       </c>
       <c r="Q283">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R283">
         <v>8</v>
@@ -15684,7 +15684,7 @@
         <v>0</v>
       </c>
       <c r="Q284">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="285" spans="1:18">
@@ -15734,7 +15734,7 @@
         <v>1</v>
       </c>
       <c r="Q285">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R285">
         <v>0</v>
@@ -15787,7 +15787,7 @@
         <v>1</v>
       </c>
       <c r="Q286">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R286">
         <v>8</v>
@@ -15840,7 +15840,7 @@
         <v>1</v>
       </c>
       <c r="Q287">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R287">
         <v>16</v>
@@ -15890,7 +15890,7 @@
         <v>0</v>
       </c>
       <c r="Q288">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="289" spans="1:18">
@@ -15940,7 +15940,7 @@
         <v>1</v>
       </c>
       <c r="Q289">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R289">
         <v>4</v>
@@ -15990,7 +15990,7 @@
         <v>0</v>
       </c>
       <c r="Q290">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="291" spans="1:18">
@@ -16034,7 +16034,7 @@
         <v>0</v>
       </c>
       <c r="Q291">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="292" spans="1:18">
@@ -16081,7 +16081,7 @@
         <v>0</v>
       </c>
       <c r="Q292">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="293" spans="1:18">
@@ -16128,7 +16128,7 @@
         <v>0</v>
       </c>
       <c r="Q293">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="294" spans="1:18">
@@ -16175,7 +16175,7 @@
         <v>0</v>
       </c>
       <c r="Q294">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="295" spans="1:18">
@@ -16222,7 +16222,7 @@
         <v>0</v>
       </c>
       <c r="Q295">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="296" spans="1:18">
@@ -16269,7 +16269,7 @@
         <v>0</v>
       </c>
       <c r="Q296">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -16316,7 +16316,7 @@
         <v>0</v>
       </c>
       <c r="Q297">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="298" spans="1:18">
@@ -16366,7 +16366,7 @@
         <v>1</v>
       </c>
       <c r="Q298">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R298">
         <v>23</v>
@@ -16416,7 +16416,7 @@
         <v>0</v>
       </c>
       <c r="Q299">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="300" spans="1:18">
@@ -16466,7 +16466,7 @@
         <v>1</v>
       </c>
       <c r="Q300">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R300">
         <v>24</v>
@@ -16516,7 +16516,7 @@
         <v>0</v>
       </c>
       <c r="Q301">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="302" spans="1:18">
@@ -16566,7 +16566,7 @@
         <v>1</v>
       </c>
       <c r="Q302">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R302">
         <v>15</v>
@@ -16616,7 +16616,7 @@
         <v>0</v>
       </c>
       <c r="Q303">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="304" spans="1:18">
@@ -16663,7 +16663,7 @@
         <v>0</v>
       </c>
       <c r="Q304">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="305" spans="1:18">
@@ -16710,7 +16710,7 @@
         <v>0</v>
       </c>
       <c r="Q305">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -16757,7 +16757,7 @@
         <v>0</v>
       </c>
       <c r="Q306">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="307" spans="1:18">
@@ -16807,7 +16807,7 @@
         <v>1</v>
       </c>
       <c r="Q307">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R307">
         <v>14</v>
@@ -16857,7 +16857,7 @@
         <v>0</v>
       </c>
       <c r="Q308">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="309" spans="1:18">
@@ -16907,7 +16907,7 @@
         <v>0</v>
       </c>
       <c r="Q309">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="310" spans="1:18">
@@ -16957,7 +16957,7 @@
         <v>1</v>
       </c>
       <c r="Q310">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R310">
         <v>7</v>
@@ -17010,7 +17010,7 @@
         <v>1</v>
       </c>
       <c r="Q311">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R311">
         <v>17</v>
@@ -17060,7 +17060,7 @@
         <v>0</v>
       </c>
       <c r="Q312">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="313" spans="1:18">
@@ -17110,7 +17110,7 @@
         <v>1</v>
       </c>
       <c r="Q313">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R313">
         <v>14</v>
@@ -17163,7 +17163,7 @@
         <v>0</v>
       </c>
       <c r="Q314">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="315" spans="1:18">
@@ -17213,7 +17213,7 @@
         <v>1</v>
       </c>
       <c r="Q315">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R315">
         <v>7</v>
@@ -17266,7 +17266,7 @@
         <v>0</v>
       </c>
       <c r="Q316">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="317" spans="1:18">
@@ -17316,7 +17316,7 @@
         <v>1</v>
       </c>
       <c r="Q317">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R317">
         <v>12</v>
@@ -17366,7 +17366,7 @@
         <v>0</v>
       </c>
       <c r="Q318">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="319" spans="1:18">
@@ -17416,7 +17416,7 @@
         <v>1</v>
       </c>
       <c r="Q319">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R319">
         <v>16</v>
@@ -17466,7 +17466,7 @@
         <v>0</v>
       </c>
       <c r="Q320">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="321" spans="1:18">
@@ -17513,7 +17513,7 @@
         <v>0</v>
       </c>
       <c r="Q321">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="322" spans="1:18">
@@ -17560,7 +17560,7 @@
         <v>0</v>
       </c>
       <c r="Q322">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="323" spans="1:18">
@@ -17607,7 +17607,7 @@
         <v>0</v>
       </c>
       <c r="Q323">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -17657,7 +17657,7 @@
         <v>1</v>
       </c>
       <c r="Q324">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R324">
         <v>0</v>
@@ -17707,7 +17707,7 @@
         <v>0</v>
       </c>
       <c r="Q325">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -17754,7 +17754,7 @@
         <v>0</v>
       </c>
       <c r="Q326">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -17804,7 +17804,7 @@
         <v>1</v>
       </c>
       <c r="Q327">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R327">
         <v>19</v>
@@ -17857,7 +17857,7 @@
         <v>0</v>
       </c>
       <c r="Q328">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="329" spans="1:18">
@@ -17907,7 +17907,7 @@
         <v>1</v>
       </c>
       <c r="Q329">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R329">
         <v>9</v>
@@ -17957,7 +17957,7 @@
         <v>0</v>
       </c>
       <c r="Q330">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="331" spans="1:18">
@@ -18007,7 +18007,7 @@
         <v>1</v>
       </c>
       <c r="Q331">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R331">
         <v>12</v>
@@ -18060,7 +18060,7 @@
         <v>1</v>
       </c>
       <c r="Q332">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R332">
         <v>16</v>
@@ -18113,7 +18113,7 @@
         <v>0</v>
       </c>
       <c r="Q333">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -18163,7 +18163,7 @@
         <v>1</v>
       </c>
       <c r="Q334">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R334">
         <v>6</v>
@@ -18210,7 +18210,7 @@
         <v>0</v>
       </c>
       <c r="Q335">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -18257,7 +18257,7 @@
         <v>0</v>
       </c>
       <c r="Q336">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -18304,7 +18304,7 @@
         <v>0</v>
       </c>
       <c r="Q337">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="338" spans="1:18">
@@ -18351,7 +18351,7 @@
         <v>0</v>
       </c>
       <c r="Q338">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="339" spans="1:18">
@@ -18398,7 +18398,7 @@
         <v>0</v>
       </c>
       <c r="Q339">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -18445,7 +18445,7 @@
         <v>0</v>
       </c>
       <c r="Q340">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="341" spans="1:18">
@@ -18492,7 +18492,7 @@
         <v>0</v>
       </c>
       <c r="Q341">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -18539,7 +18539,7 @@
         <v>0</v>
       </c>
       <c r="Q342">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="343" spans="1:18">
@@ -18586,7 +18586,7 @@
         <v>0</v>
       </c>
       <c r="Q343">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="344" spans="1:18">
@@ -18636,7 +18636,7 @@
         <v>1</v>
       </c>
       <c r="Q344">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R344">
         <v>23</v>
@@ -18686,7 +18686,7 @@
         <v>0</v>
       </c>
       <c r="Q345">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -18733,7 +18733,7 @@
         <v>0</v>
       </c>
       <c r="Q346">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="347" spans="1:18">
@@ -18780,7 +18780,7 @@
         <v>0</v>
       </c>
       <c r="Q347">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -18827,7 +18827,7 @@
         <v>0</v>
       </c>
       <c r="Q348">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="349" spans="1:18">
@@ -18877,7 +18877,7 @@
         <v>1</v>
       </c>
       <c r="Q349">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R349">
         <v>6</v>
@@ -18927,7 +18927,7 @@
         <v>0</v>
       </c>
       <c r="Q350">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="351" spans="1:18">
@@ -18977,7 +18977,7 @@
         <v>0</v>
       </c>
       <c r="Q351">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="352" spans="1:18">
@@ -19024,7 +19024,7 @@
         <v>0</v>
       </c>
       <c r="Q352">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="353" spans="1:18">
@@ -19071,7 +19071,7 @@
         <v>0</v>
       </c>
       <c r="Q353">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="354" spans="1:18">
@@ -19118,7 +19118,7 @@
         <v>0</v>
       </c>
       <c r="Q354">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="355" spans="1:18">
@@ -19168,7 +19168,7 @@
         <v>1</v>
       </c>
       <c r="Q355">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R355">
         <v>20</v>
@@ -19218,7 +19218,7 @@
         <v>0</v>
       </c>
       <c r="Q356">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="357" spans="1:18">
@@ -19268,7 +19268,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19315,7 +19315,7 @@
         <v>0</v>
       </c>
       <c r="Q358">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -19365,7 +19365,7 @@
         <v>0</v>
       </c>
       <c r="Q359">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="360" spans="1:18">
@@ -19415,7 +19415,7 @@
         <v>1</v>
       </c>
       <c r="Q360">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R360">
         <v>24</v>
@@ -19468,7 +19468,7 @@
         <v>1</v>
       </c>
       <c r="Q361">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R361">
         <v>5</v>
@@ -19521,7 +19521,7 @@
         <v>1</v>
       </c>
       <c r="Q362">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R362">
         <v>16</v>
@@ -19574,7 +19574,7 @@
         <v>1</v>
       </c>
       <c r="Q363">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R363">
         <v>31</v>
@@ -19624,7 +19624,7 @@
         <v>0</v>
       </c>
       <c r="Q364">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="365" spans="1:18">
@@ -19674,7 +19674,7 @@
         <v>0</v>
       </c>
       <c r="Q365">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="366" spans="1:18">
@@ -19724,7 +19724,7 @@
         <v>1</v>
       </c>
       <c r="Q366">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R366">
         <v>29</v>
@@ -19777,7 +19777,7 @@
         <v>1</v>
       </c>
       <c r="Q367">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R367">
         <v>28</v>
@@ -19821,10 +19821,10 @@
         <v>1</v>
       </c>
       <c r="P368" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q368">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="369" spans="1:18">
@@ -19865,10 +19865,10 @@
         <v>1</v>
       </c>
       <c r="P369" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q369">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="370" spans="1:18">
@@ -19915,7 +19915,7 @@
         <v>0</v>
       </c>
       <c r="Q370">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="371" spans="1:18">
@@ -19968,7 +19968,7 @@
         <v>1</v>
       </c>
       <c r="Q371">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="R371">
         <v>2</v>
@@ -20018,7 +20018,7 @@
         <v>0</v>
       </c>
       <c r="Q372">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="373" spans="1:18">
@@ -20068,7 +20068,7 @@
         <v>1</v>
       </c>
       <c r="Q373">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="R373">
         <v>11</v>
@@ -20118,7 +20118,7 @@
         <v>0</v>
       </c>
       <c r="Q374">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -20168,7 +20168,7 @@
         <v>1</v>
       </c>
       <c r="Q375">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="R375">
         <v>17</v>
@@ -20218,7 +20218,7 @@
         <v>0</v>
       </c>
       <c r="Q376">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="377" spans="1:18">
@@ -20265,7 +20265,7 @@
         <v>0</v>
       </c>
       <c r="Q377">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="378" spans="1:18">
@@ -20318,7 +20318,7 @@
         <v>1</v>
       </c>
       <c r="Q378">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="R378">
         <v>0</v>
@@ -20368,7 +20368,7 @@
         <v>0</v>
       </c>
       <c r="Q379">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="380" spans="1:18">
@@ -20415,7 +20415,7 @@
         <v>0</v>
       </c>
       <c r="Q380">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="381" spans="1:18">
@@ -20465,7 +20465,7 @@
         <v>1</v>
       </c>
       <c r="Q381">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="R381">
         <v>15</v>
@@ -20518,7 +20518,7 @@
         <v>1</v>
       </c>
       <c r="Q382">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="R382">
         <v>10</v>
@@ -20571,7 +20571,7 @@
         <v>1</v>
       </c>
       <c r="Q383">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="R383">
         <v>23</v>
@@ -20624,7 +20624,7 @@
         <v>0</v>
       </c>
       <c r="Q384">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="385" spans="1:18">
@@ -20674,7 +20674,7 @@
         <v>1</v>
       </c>
       <c r="Q385">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="R385">
         <v>9</v>
@@ -20727,7 +20727,7 @@
         <v>0</v>
       </c>
       <c r="Q386">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="387" spans="1:18">
@@ -20777,7 +20777,7 @@
         <v>1</v>
       </c>
       <c r="Q387">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R387">
         <v>21</v>
@@ -20830,7 +20830,7 @@
         <v>0</v>
       </c>
       <c r="Q388">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -20877,7 +20877,7 @@
         <v>0</v>
       </c>
       <c r="Q389">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -20924,7 +20924,7 @@
         <v>0</v>
       </c>
       <c r="Q390">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="391" spans="1:18">
@@ -20971,7 +20971,7 @@
         <v>0</v>
       </c>
       <c r="Q391">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="392" spans="1:18">
@@ -21021,7 +21021,7 @@
         <v>0</v>
       </c>
       <c r="Q392">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="393" spans="1:18">
@@ -21071,7 +21071,7 @@
         <v>1</v>
       </c>
       <c r="Q393">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R393">
         <v>21</v>
@@ -21124,7 +21124,7 @@
         <v>1</v>
       </c>
       <c r="Q394">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R394">
         <v>23</v>
@@ -21174,7 +21174,7 @@
         <v>0</v>
       </c>
       <c r="Q395">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="396" spans="1:18">
@@ -21224,7 +21224,7 @@
         <v>0</v>
       </c>
       <c r="Q396">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -21274,7 +21274,7 @@
         <v>1</v>
       </c>
       <c r="Q397">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R397">
         <v>9</v>
@@ -21324,7 +21324,7 @@
         <v>0</v>
       </c>
       <c r="Q398">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -21374,7 +21374,7 @@
         <v>1</v>
       </c>
       <c r="Q399">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R399">
         <v>28</v>
@@ -21427,7 +21427,7 @@
         <v>0</v>
       </c>
       <c r="Q400">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="401" spans="1:18">
@@ -21477,7 +21477,7 @@
         <v>1</v>
       </c>
       <c r="Q401">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R401">
         <v>5</v>
@@ -21527,7 +21527,7 @@
         <v>0</v>
       </c>
       <c r="Q402">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="403" spans="1:18">
@@ -21577,7 +21577,7 @@
         <v>0</v>
       </c>
       <c r="Q403">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="404" spans="1:18">
@@ -21627,7 +21627,7 @@
         <v>1</v>
       </c>
       <c r="Q404">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R404">
         <v>22</v>
@@ -21677,7 +21677,7 @@
         <v>0</v>
       </c>
       <c r="Q405">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="406" spans="1:18">
@@ -21724,7 +21724,7 @@
         <v>0</v>
       </c>
       <c r="Q406">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="407" spans="1:18">
@@ -21774,7 +21774,7 @@
         <v>1</v>
       </c>
       <c r="Q407">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R407">
         <v>22</v>
@@ -21821,7 +21821,7 @@
         <v>0</v>
       </c>
       <c r="Q408">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="409" spans="1:18">
@@ -21871,7 +21871,7 @@
         <v>1</v>
       </c>
       <c r="Q409">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R409">
         <v>7</v>
@@ -21921,7 +21921,7 @@
         <v>0</v>
       </c>
       <c r="Q410">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="411" spans="1:18">
@@ -21968,7 +21968,7 @@
         <v>0</v>
       </c>
       <c r="Q411">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="412" spans="1:18">
@@ -22015,7 +22015,7 @@
         <v>0</v>
       </c>
       <c r="Q412">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="413" spans="1:18">
@@ -22062,7 +22062,7 @@
         <v>0</v>
       </c>
       <c r="Q413">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -22109,7 +22109,7 @@
         <v>0</v>
       </c>
       <c r="Q414">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="415" spans="1:18">
@@ -22156,7 +22156,7 @@
         <v>0</v>
       </c>
       <c r="Q415">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="416" spans="1:18">
@@ -22203,7 +22203,7 @@
         <v>0</v>
       </c>
       <c r="Q416">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22250,7 +22250,7 @@
         <v>0</v>
       </c>
       <c r="Q417">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -22300,7 +22300,7 @@
         <v>1</v>
       </c>
       <c r="Q418">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R418">
         <v>0</v>
@@ -22350,7 +22350,7 @@
         <v>1</v>
       </c>
       <c r="Q419">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R419">
         <v>15</v>
@@ -22400,7 +22400,7 @@
         <v>0</v>
       </c>
       <c r="Q420">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="421" spans="1:18">
@@ -22447,7 +22447,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22494,7 +22494,7 @@
         <v>0</v>
       </c>
       <c r="Q422">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="423" spans="1:18">
@@ -22541,7 +22541,7 @@
         <v>0</v>
       </c>
       <c r="Q423">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="424" spans="1:18">
@@ -22591,7 +22591,7 @@
         <v>1</v>
       </c>
       <c r="Q424">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R424">
         <v>17</v>
@@ -22641,7 +22641,7 @@
         <v>0</v>
       </c>
       <c r="Q425">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="426" spans="1:18">
@@ -22688,7 +22688,7 @@
         <v>0</v>
       </c>
       <c r="Q426">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="427" spans="1:18">
@@ -22738,7 +22738,7 @@
         <v>1</v>
       </c>
       <c r="Q427">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R427">
         <v>35</v>
@@ -22791,7 +22791,7 @@
         <v>0</v>
       </c>
       <c r="Q428">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="429" spans="1:18">
@@ -22838,7 +22838,7 @@
         <v>0</v>
       </c>
       <c r="Q429">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="430" spans="1:18">
@@ -22888,7 +22888,7 @@
         <v>0</v>
       </c>
       <c r="Q430">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="431" spans="1:18">
@@ -22938,7 +22938,7 @@
         <v>1</v>
       </c>
       <c r="Q431">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R431">
         <v>26</v>
@@ -22988,7 +22988,7 @@
         <v>0</v>
       </c>
       <c r="Q432">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="433" spans="1:18">
@@ -23038,7 +23038,7 @@
         <v>1</v>
       </c>
       <c r="Q433">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R433">
         <v>4</v>
@@ -23088,7 +23088,7 @@
         <v>0</v>
       </c>
       <c r="Q434">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="435" spans="1:18">
@@ -23135,7 +23135,7 @@
         <v>0</v>
       </c>
       <c r="Q435">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="436" spans="1:18">
@@ -23185,7 +23185,7 @@
         <v>1</v>
       </c>
       <c r="Q436">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R436">
         <v>0</v>
@@ -23238,7 +23238,7 @@
         <v>0</v>
       </c>
       <c r="Q437">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="438" spans="1:18">
@@ -23285,7 +23285,7 @@
         <v>1</v>
       </c>
       <c r="Q438">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R438">
         <v>7</v>
@@ -23338,7 +23338,7 @@
         <v>1</v>
       </c>
       <c r="Q439">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R439">
         <v>16</v>
@@ -23391,7 +23391,7 @@
         <v>0</v>
       </c>
       <c r="Q440">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="441" spans="1:18">
@@ -23438,7 +23438,7 @@
         <v>0</v>
       </c>
       <c r="Q441">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="442" spans="1:18">
@@ -23485,7 +23485,7 @@
         <v>0</v>
       </c>
       <c r="Q442">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="443" spans="1:18">
@@ -23535,7 +23535,7 @@
         <v>1</v>
       </c>
       <c r="Q443">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R443">
         <v>35</v>
@@ -23585,7 +23585,7 @@
         <v>0</v>
       </c>
       <c r="Q444">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="445" spans="1:18">
@@ -23632,7 +23632,7 @@
         <v>0</v>
       </c>
       <c r="Q445">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="446" spans="1:18">
@@ -23679,7 +23679,7 @@
         <v>0</v>
       </c>
       <c r="Q446">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="447" spans="1:18">
@@ -23726,7 +23726,7 @@
         <v>0</v>
       </c>
       <c r="Q447">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="448" spans="1:18">
@@ -23773,7 +23773,7 @@
         <v>0</v>
       </c>
       <c r="Q448">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="449" spans="1:18">
@@ -23820,7 +23820,7 @@
         <v>0</v>
       </c>
       <c r="Q449">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="450" spans="1:18">
@@ -23870,7 +23870,7 @@
         <v>1</v>
       </c>
       <c r="Q450">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R450">
         <v>17</v>
@@ -23923,7 +23923,7 @@
         <v>0</v>
       </c>
       <c r="Q451">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="452" spans="1:18">
@@ -23970,7 +23970,7 @@
         <v>0</v>
       </c>
       <c r="Q452">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="453" spans="1:18">
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="Q453">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="454" spans="1:18">
@@ -24064,7 +24064,7 @@
         <v>0</v>
       </c>
       <c r="Q454">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="455" spans="1:18">
@@ -24114,7 +24114,7 @@
         <v>1</v>
       </c>
       <c r="Q455">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R455">
         <v>18</v>
@@ -24167,7 +24167,7 @@
         <v>0</v>
       </c>
       <c r="Q456">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="457" spans="1:18">
@@ -24217,7 +24217,7 @@
         <v>1</v>
       </c>
       <c r="Q457">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R457">
         <v>17</v>
@@ -24270,7 +24270,7 @@
         <v>1</v>
       </c>
       <c r="Q458">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R458">
         <v>20</v>
@@ -24320,7 +24320,7 @@
         <v>0</v>
       </c>
       <c r="Q459">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="460" spans="1:18">
@@ -24370,7 +24370,7 @@
         <v>1</v>
       </c>
       <c r="Q460">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R460">
         <v>11</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="Q461">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="462" spans="1:18">
@@ -24467,7 +24467,7 @@
         <v>0</v>
       </c>
       <c r="Q462">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="463" spans="1:18">
@@ -24514,7 +24514,7 @@
         <v>0</v>
       </c>
       <c r="Q463">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="464" spans="1:18">
@@ -24561,7 +24561,7 @@
         <v>0</v>
       </c>
       <c r="Q464">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="465" spans="1:18">
@@ -24611,7 +24611,7 @@
         <v>1</v>
       </c>
       <c r="Q465">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R465">
         <v>9</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="Q466">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="467" spans="1:18">
@@ -24708,7 +24708,7 @@
         <v>0</v>
       </c>
       <c r="Q467">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="468" spans="1:18">
@@ -24758,7 +24758,7 @@
         <v>1</v>
       </c>
       <c r="Q468">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R468">
         <v>30</v>
@@ -24811,7 +24811,7 @@
         <v>0</v>
       </c>
       <c r="Q469">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="470" spans="1:18">
@@ -24861,7 +24861,7 @@
         <v>1</v>
       </c>
       <c r="Q470">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R470">
         <v>12</v>
@@ -24911,7 +24911,7 @@
         <v>0</v>
       </c>
       <c r="Q471">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="472" spans="1:18">
@@ -24955,7 +24955,7 @@
         <v>0</v>
       </c>
       <c r="Q472">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="473" spans="1:18">
@@ -25002,7 +25002,7 @@
         <v>0</v>
       </c>
       <c r="Q473">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="474" spans="1:18">
@@ -25049,7 +25049,7 @@
         <v>0</v>
       </c>
       <c r="Q474">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="475" spans="1:18">
@@ -25096,7 +25096,7 @@
         <v>0</v>
       </c>
       <c r="Q475">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="476" spans="1:18">
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Q476">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="477" spans="1:18">
@@ -25190,7 +25190,7 @@
         <v>0</v>
       </c>
       <c r="Q477">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="478" spans="1:18">
@@ -25240,7 +25240,7 @@
         <v>1</v>
       </c>
       <c r="Q478">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R478">
         <v>18</v>
@@ -25290,7 +25290,7 @@
         <v>0</v>
       </c>
       <c r="Q479">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="480" spans="1:18">
@@ -25337,7 +25337,7 @@
         <v>0</v>
       </c>
       <c r="Q480">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="481" spans="1:18">
@@ -25384,7 +25384,7 @@
         <v>0</v>
       </c>
       <c r="Q481">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="482" spans="1:18">
@@ -25431,7 +25431,7 @@
         <v>0</v>
       </c>
       <c r="Q482">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="483" spans="1:18">
@@ -25481,7 +25481,7 @@
         <v>1</v>
       </c>
       <c r="Q483">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R483">
         <v>23</v>
@@ -25534,7 +25534,7 @@
         <v>0</v>
       </c>
       <c r="Q484">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="485" spans="1:18">
@@ -25584,7 +25584,7 @@
         <v>1</v>
       </c>
       <c r="Q485">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R485">
         <v>5</v>
@@ -25637,7 +25637,7 @@
         <v>0</v>
       </c>
       <c r="Q486">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="487" spans="1:18">
@@ -25684,7 +25684,7 @@
         <v>0</v>
       </c>
       <c r="Q487">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="488" spans="1:18">
@@ -25731,7 +25731,7 @@
         <v>0</v>
       </c>
       <c r="Q488">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="489" spans="1:18">
@@ -25778,7 +25778,7 @@
         <v>0</v>
       </c>
       <c r="Q489">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="490" spans="1:18">
@@ -25828,7 +25828,7 @@
         <v>1</v>
       </c>
       <c r="Q490">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R490">
         <v>6</v>
@@ -25875,7 +25875,7 @@
         <v>0</v>
       </c>
       <c r="Q491">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="492" spans="1:18">
@@ -25925,7 +25925,7 @@
         <v>1</v>
       </c>
       <c r="Q492">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="R492">
         <v>5</v>
@@ -25978,7 +25978,7 @@
         <v>0</v>
       </c>
       <c r="Q493">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="494" spans="1:18">
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="Q494">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="495" spans="1:18">
@@ -26072,7 +26072,7 @@
         <v>0</v>
       </c>
       <c r="Q495">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="496" spans="1:18">
@@ -26119,7 +26119,7 @@
         <v>0</v>
       </c>
       <c r="Q496">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="497" spans="1:18">
@@ -26166,7 +26166,7 @@
         <v>0</v>
       </c>
       <c r="Q497">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="498" spans="1:18">
@@ -26213,7 +26213,7 @@
         <v>0</v>
       </c>
       <c r="Q498">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="499" spans="1:18">
@@ -26263,7 +26263,7 @@
         <v>1</v>
       </c>
       <c r="Q499">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="R499">
         <v>3</v>
@@ -26316,7 +26316,7 @@
         <v>0</v>
       </c>
       <c r="Q500">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="501" spans="1:18">
@@ -26363,7 +26363,7 @@
         <v>0</v>
       </c>
       <c r="Q501">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="502" spans="1:18">
@@ -26410,7 +26410,7 @@
         <v>0</v>
       </c>
       <c r="Q502">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="503" spans="1:18">
@@ -26457,7 +26457,7 @@
         <v>0</v>
       </c>
       <c r="Q503">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="504" spans="1:18">
@@ -26507,7 +26507,7 @@
         <v>1</v>
       </c>
       <c r="Q504">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="R504">
         <v>4</v>
@@ -26551,10 +26551,10 @@
         <v>1</v>
       </c>
       <c r="P505" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q505">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="506" spans="1:18">
@@ -26595,7 +26595,7 @@
         <v>0</v>
       </c>
       <c r="Q506">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
